--- a/Materials/BOM-WeMakeColors II.xlsx
+++ b/Materials/BOM-WeMakeColors II.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42940" windowHeight="20140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bom 1.1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
-    <t>https://www.plexiglas-shop.com/IT/it/xt-allround-8ny276huqre/plexiglas-xt-allround-bianco-wn297-gt-cfy07wjb25z~p.html</t>
-  </si>
-  <si>
     <t>WN297 GT</t>
   </si>
   <si>
-    <t>1050x820</t>
-  </si>
-  <si>
     <t>420x297</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>99532 GT</t>
   </si>
   <si>
-    <t>https://www.plexiglas-shop.com/IT/it/foglio-7amim86q5ps/plexiglas-foglio-bianco-99532-gt-1-0-mm-iqq6a1wurpd~p.html</t>
-  </si>
-  <si>
     <t>Price Piece</t>
   </si>
   <si>
@@ -148,15 +139,6 @@
     <t>Wemos D1 mini</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/D1-mini-Mini-NodeMcu-4M-bytes-Lua-WIFI-Internet-of-Things-development-board-based-ESP8266/32529101036.html?spm=a2g0s.9042311.0.0.ptxchk</t>
-  </si>
-  <si>
-    <t>https://www.plexiglas-shop.com/IT/it/foglio-7amim86q5ps/plexiglas-foglio-incolore-99524-gt-d60dewzfkej~p.html</t>
-  </si>
-  <si>
     <t>PLEXIGLAS® Film, white - 1,0 mm</t>
   </si>
   <si>
@@ -224,6 +206,24 @@
   </si>
   <si>
     <t>WeMakeColorsII Bill of materials</t>
+  </si>
+  <si>
+    <t>https://www.plexiglas-shop.com/Products/Sheet/PLWN297GT-3-00-3050X2050-03-01-X.html</t>
+  </si>
+  <si>
+    <t>https://www.plexiglas-shop.com/Products/FF99524GT-0-5-420x297.html?listtype=search&amp;searchparam=99524</t>
+  </si>
+  <si>
+    <t>https://www.plexiglas-shop.com/Products/FF99532-1-000.html</t>
+  </si>
+  <si>
+    <t>1100x1040</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>https://it.aliexpress.com/item/D1-mini-Mini-NodeMcu-4M-bytes-Lua-WIFI-Internet-of-Things-development-board-based-ESP8266/32529101036.html?spm=a2g0s.9042311.0.0.4d304c4dTHxv3C</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -747,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B1" s="32">
         <v>43110</v>
@@ -756,91 +756,91 @@
     </row>
     <row r="2" spans="1:12" ht="17" customHeight="1">
       <c r="A2" s="34" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1" ht="17" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D4" s="14">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4" s="17">
-        <v>31.54</v>
+        <v>39.6</v>
       </c>
       <c r="F4" s="26">
         <f>E4/D4</f>
-        <v>0.95575757575757569</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="G4" s="14">
         <v>1</v>
       </c>
       <c r="H4" s="17">
         <f>E4/D4</f>
-        <v>0.95575757575757569</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="14">
         <v>15</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" ht="17" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14">
         <v>40</v>
@@ -860,59 +860,59 @@
         <v>0.20224999999999999</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" ht="17" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="14">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E6" s="17">
         <v>5.39</v>
       </c>
       <c r="F6" s="26">
         <f>E6/D6</f>
-        <v>0.13474999999999998</v>
+        <v>6.737499999999999E-2</v>
       </c>
       <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="17">
         <f>E6/D6</f>
-        <v>0.13474999999999998</v>
+        <v>6.737499999999999E-2</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="17">
         <f>SUM(H4:H6)</f>
-        <v>1.2927575757575755</v>
+        <v>1.2124821428571428</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -932,54 +932,55 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="27">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="H8" s="16">
-        <v>4.13</v>
+        <f>F8*G8</f>
+        <v>3.14</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J8" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="27"/>
@@ -990,21 +991,21 @@
         <v>0.1721</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J9" s="11">
         <v>0</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="17" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D10" s="11">
         <v>40</v>
@@ -1024,22 +1025,22 @@
         <v>9.7650000000000001E-2</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1048,21 +1049,21 @@
         <v>1.67</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="8">
@@ -1072,25 +1073,25 @@
         <v>2.85</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="8">
         <v>0</v>
       </c>
       <c r="K12" s="20">
         <f>SUM(H7:H12)</f>
-        <v>9.6557499999999994</v>
+        <v>8.665750000000001</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="29">
@@ -1104,21 +1105,21 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J13" s="5">
         <v>7.9</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F14" s="29">
         <v>2.0199999999999999E-2</v>
@@ -1131,18 +1132,18 @@
         <v>4.0399999999999998E-2</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="29">
         <v>1.2500000000000001E-2</v>
@@ -1155,28 +1156,28 @@
         <v>0.1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="18">
         <f>SUM(H13:H15)</f>
         <v>0.28839999999999999</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="7:11" ht="17" customHeight="1">
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H17" s="30">
         <f>SUM(H4:H15)</f>
-        <v>11.236907575757575</v>
+        <v>10.166632142857143</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="31">
         <f>SUM(K4:K15)</f>
-        <v>11.236907575757574</v>
+        <v>10.166632142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6 K12 K15">
+  <conditionalFormatting sqref="K12 K6 K15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1255,7 +1256,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://www.plexiglas-shop.com/IT/it/xt-allround-8ny276huqre/plexiglas-xt-allround-bianco-wn297-gt-cfy07wjb25z~p.html"/>
     <hyperlink ref="L13" r:id="rId3"/>
     <hyperlink ref="L14" r:id="rId4"/>
     <hyperlink ref="L15" r:id="rId5"/>
@@ -1292,51 +1293,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="19">
         <v>2.2799999999999998</v>
@@ -1349,7 +1350,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J4" s="8">
         <v>7.9</v>
@@ -1359,15 +1360,15 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="17" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8">
         <v>10</v>
@@ -1387,24 +1388,24 @@
         <v>1.0470000000000002</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="21" customFormat="1" ht="17" customHeight="1">
       <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
